--- a/biology/Botanique/Gunneraceae/Gunneraceae.xlsx
+++ b/biology/Botanique/Gunneraceae/Gunneraceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Gunneraceae est une famille de plantes dicotylédones qui comprend 50 espèces du genre Gunnera L.
 Ce sont des plantes herbacées, pérennes, à rosette de larges feuilles, à grandes inflorescences portant de nombreuses petites fleurs, principalement originaires de l'hémisphère sud (régions circum-pacifiques et Afrique).
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre-type Gunnera nommé par Linné en hommage au théologien et naturaliste norvégien Johan Ernst Gunnerus (1718–1773), qui fut le premier à décrire le requin pèlerin, publia une flore de Norvège (Flora Norvegica) et étudia le peuple Saami en Laponie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre-type Gunnera nommé par Linné en hommage au théologien et naturaliste norvégien Johan Ernst Gunnerus (1718–1773), qui fut le premier à décrire le requin pèlerin, publia une flore de Norvège (Flora Norvegica) et étudia le peuple Saami en Laponie.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La classification situe leur divergence au niveau du noyau des Dicotylédones vraies, avec les Myrothamnaceae (optionnellement inclus dans la famille des Gunneraceae). Elles forment l'ordre des Gunnerales.
 </t>
@@ -574,9 +590,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (27 avr. 2010)[2], Angiosperm Phylogeny Website                        (21 mai 2010)[3], NCBI  (27 avr. 2010)[4], DELTA Angio           (27 avr. 2010)[5] et ITIS      (27 avr. 2010)[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (27 avr. 2010), Angiosperm Phylogeny Website                        (21 mai 2010), NCBI  (27 avr. 2010), DELTA Angio           (27 avr. 2010) et ITIS      (27 avr. 2010) :
 genre Gunnera  L. (1767)</t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (27 avr. 2010)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (27 avr. 2010) :
 genre Gunnera  L. (1767)
 Gunnera aequatoriensis  L.E.Moro (1978)
 Gunnera albocarpa  (Kirk) Cockayne (1909)
@@ -678,7 +698,7 @@
 Gunnera tinctoria  (Molina) Mirb., Hist. Nat. Pl., ed. 2 (1805)
 Gunnera venezolana  L.E.Moro (1978)
 Gunnera vestita  Schindl. (1905)
-Selon NCBI  (27 avr. 2010)[4] :
+Selon NCBI  (27 avr. 2010) :
 genre Gunnera
 Gunnera arenaria
 Gunnera boliviana
@@ -735,7 +755,9 @@
           <t>Illustration</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Remarquons que la gunnera manicata ci-dessous appelée rhubarbe géante n'est pas une rhubarbe botaniquement parlant. 
 </t>
